--- a/Gantt chart 4.0.xlsx
+++ b/Gantt chart 4.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dayyan\Desktop\Griffith University\Second Year\Second semister\2810ICT Software Technologies\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E9CC83A8-F92E-4932-831B-A994A82C7369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0041B6D9-88CB-4277-8247-A590B0302DFF}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{E9CC83A8-F92E-4932-831B-A994A82C7369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AA42358-95CB-47D0-92FE-A2921482AB0B}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-45" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Project Title</t>
   </si>
@@ -188,22 +188,22 @@
     <t>Create WBS and schedule</t>
   </si>
   <si>
-    <t xml:space="preserve">write design system components </t>
-  </si>
-  <si>
-    <t>craete a gantt chart</t>
-  </si>
-  <si>
-    <t>planning user interface design</t>
+    <t xml:space="preserve">Write design system components </t>
+  </si>
+  <si>
+    <t>Create a gantt chart</t>
+  </si>
+  <si>
+    <t>Planning user interface design</t>
   </si>
   <si>
     <t>Design tasks</t>
   </si>
   <si>
-    <t xml:space="preserve">design the software components </t>
-  </si>
-  <si>
-    <t>design the application layout</t>
+    <t xml:space="preserve">Design the software components </t>
+  </si>
+  <si>
+    <t>Design the website layout</t>
   </si>
   <si>
     <t>Design a list used for data analysis</t>
@@ -212,19 +212,37 @@
     <t xml:space="preserve">Executing </t>
   </si>
   <si>
-    <t>linking database with the application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">creating the background querry bank </t>
-  </si>
-  <si>
-    <t>check the data analysis</t>
-  </si>
-  <si>
-    <t>install new software on the server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">install new SW on the clients machine </t>
+    <t>Database integration</t>
+  </si>
+  <si>
+    <t>Making the website compatible to all devices</t>
+  </si>
+  <si>
+    <t>Check the data analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating the background query bank </t>
+  </si>
+  <si>
+    <t>Making query which will get the suburb data</t>
+  </si>
+  <si>
+    <t>Making query which will get the database for the pricing</t>
+  </si>
+  <si>
+    <t>Making query which would be looking for the key words from the database</t>
+  </si>
+  <si>
+    <t>Making query which will provide data for the neighborhood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Making query which will be looking for cleanliness </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designing how the graph would be represented </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designing how the data would be shown in the interface </t>
   </si>
   <si>
     <t>Testing</t>
@@ -300,7 +318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -387,13 +405,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -698,13 +709,13 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFill="0" applyProtection="0">
@@ -726,29 +737,29 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" applyFill="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -791,45 +802,33 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="16" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="16" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="16" applyFont="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="16" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="16" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="16" applyFont="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="16" applyFont="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="16" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="16" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -865,6 +864,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="16" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="center"/>
@@ -906,20 +911,20 @@
     <cellStyle name="Activity" xfId="16" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
     <cellStyle name="Actual (beyond plan) legend" xfId="13" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
     <cellStyle name="Actual legend" xfId="17" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Explanatory Text" xfId="7" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="8" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="9" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="10" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19"/>
     <cellStyle name="Label" xfId="4" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent Complete" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Period Headers" xfId="18" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
     <cellStyle name="Period Highlight Control" xfId="11" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="Period Value" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Plan legend" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Project Headers" xfId="14" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="标题" xfId="6" builtinId="15"/>
-    <cellStyle name="标题 1" xfId="8" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="9" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="10" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19"/>
-    <cellStyle name="解释性文本" xfId="7" builtinId="53"/>
+    <cellStyle name="Title" xfId="6" builtinId="15"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1288,10 +1293,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO47"/>
+  <dimension ref="B1:BO53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B17" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
@@ -1321,112 +1326,112 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1">
-      <c r="B2" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="B2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="40" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="40" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="44" t="s">
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="44" t="s">
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
     </row>
     <row r="3" spans="2:67" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="47" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1">
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="10">
         <v>1</v>
       </c>
@@ -1616,687 +1621,783 @@
         <v>1</v>
       </c>
       <c r="D5" s="12">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
       </c>
       <c r="F5" s="12">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G5" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15">
-        <v>1</v>
-      </c>
-      <c r="D6" s="15">
-        <v>3</v>
-      </c>
-      <c r="E6" s="15">
-        <v>1</v>
-      </c>
-      <c r="F6" s="15">
-        <v>3</v>
-      </c>
-      <c r="G6" s="16">
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
+        <v>2</v>
+      </c>
+      <c r="D7" s="14">
         <v>4</v>
       </c>
-      <c r="D7" s="15">
-        <v>5</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
+        <v>2</v>
+      </c>
+      <c r="F7" s="14">
         <v>4</v>
       </c>
-      <c r="F7" s="15">
-        <v>4</v>
-      </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="18">
-        <v>9</v>
-      </c>
-      <c r="D8" s="18">
-        <v>4</v>
-      </c>
-      <c r="E8" s="18">
-        <v>9</v>
-      </c>
-      <c r="F8" s="18">
-        <v>4</v>
-      </c>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1">
+      <c r="C8" s="16">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16">
+        <v>2</v>
+      </c>
+      <c r="E8" s="16">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16">
+        <v>2</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" ht="28.5" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="12">
+        <v>8</v>
+      </c>
+      <c r="D9" s="12">
+        <v>8</v>
+      </c>
+      <c r="E9" s="12">
+        <v>8</v>
+      </c>
+      <c r="F9" s="12">
+        <v>8</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:67" ht="42.75" customHeight="1">
+      <c r="B10" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="14">
+        <v>8</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>8</v>
+      </c>
+      <c r="F10" s="14">
+        <v>2</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" ht="30" customHeight="1">
+      <c r="B11" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="14">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14">
+        <v>10</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" ht="38.1" customHeight="1">
+      <c r="B12" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="14">
+        <v>11</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14">
+        <v>11</v>
+      </c>
+      <c r="F12" s="14">
+        <v>2</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" ht="38.1" customHeight="1">
+      <c r="B13" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="14">
+        <v>11</v>
+      </c>
+      <c r="D13" s="14">
+        <v>4</v>
+      </c>
+      <c r="E13" s="14">
+        <v>11</v>
+      </c>
+      <c r="F13" s="14">
+        <v>4</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:67" ht="38.1" customHeight="1">
+      <c r="B14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="14">
         <v>13</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D14" s="14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="14">
+        <v>13</v>
+      </c>
+      <c r="F14" s="14">
+        <v>3</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:67" ht="38.1" customHeight="1">
+      <c r="B15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="14">
+        <v>16</v>
+      </c>
+      <c r="D15" s="14">
         <v>15</v>
       </c>
-      <c r="E9" s="12">
-        <v>13</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="E15" s="14">
+        <v>16</v>
+      </c>
+      <c r="F15" s="14">
         <v>15</v>
       </c>
-      <c r="G9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1">
-      <c r="B10" s="14" t="s">
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:67" ht="38.1" customHeight="1">
+      <c r="B16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="14">
+        <v>16</v>
+      </c>
+      <c r="D16" s="14">
+        <v>6</v>
+      </c>
+      <c r="E16" s="14">
+        <v>16</v>
+      </c>
+      <c r="F16" s="14">
+        <v>6</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1">
+      <c r="B17" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="14">
+        <v>22</v>
+      </c>
+      <c r="D17" s="14">
+        <v>6</v>
+      </c>
+      <c r="E17" s="14">
+        <v>22</v>
+      </c>
+      <c r="F17" s="14">
+        <v>6</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1">
+      <c r="B18" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="14">
+        <v>28</v>
+      </c>
+      <c r="D18" s="14">
+        <v>3</v>
+      </c>
+      <c r="E18" s="14">
+        <v>28</v>
+      </c>
+      <c r="F18" s="14">
+        <v>3</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="33.950000000000003" customHeight="1">
+      <c r="B19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="14">
+        <v>31</v>
+      </c>
+      <c r="D19" s="14">
         <v>20</v>
       </c>
-      <c r="C10" s="15">
-        <v>13</v>
-      </c>
-      <c r="D10" s="15">
-        <v>4</v>
-      </c>
-      <c r="E10" s="15">
-        <v>13</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="25.5" customHeight="1">
+      <c r="B20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="14">
+        <v>31</v>
+      </c>
+      <c r="D20" s="14">
+        <v>5</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="45.95" customHeight="1">
+      <c r="B21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="14">
+        <v>36</v>
+      </c>
+      <c r="D21" s="14">
         <v>3</v>
       </c>
-      <c r="G10" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1">
-      <c r="B11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="15">
-        <v>16</v>
-      </c>
-      <c r="D11" s="15">
-        <v>5</v>
-      </c>
-      <c r="E11" s="15">
-        <v>15</v>
-      </c>
-      <c r="F11" s="15">
-        <v>6</v>
-      </c>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:67" ht="38.1" customHeight="1">
-      <c r="B12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="15">
-        <v>18</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="32.25" customHeight="1">
+      <c r="B22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="14">
+        <v>39</v>
+      </c>
+      <c r="D22" s="14">
         <v>2</v>
       </c>
-      <c r="E12" s="15">
-        <v>18</v>
-      </c>
-      <c r="F12" s="15">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="29.25" customHeight="1">
+      <c r="B23" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="14">
+        <v>41</v>
+      </c>
+      <c r="D23" s="14">
+        <v>10</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="45.95" customHeight="1">
+      <c r="B24" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="14">
+        <v>41</v>
+      </c>
+      <c r="D24" s="14">
         <v>2</v>
       </c>
-      <c r="G12" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:67" ht="38.1" customHeight="1">
-      <c r="B13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="15">
-        <v>16</v>
-      </c>
-      <c r="D13" s="15">
-        <v>10</v>
-      </c>
-      <c r="E13" s="15">
-        <v>13</v>
-      </c>
-      <c r="F13" s="15">
-        <v>10</v>
-      </c>
-      <c r="G13" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:67" ht="38.1" customHeight="1">
-      <c r="B14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="15">
-        <v>25</v>
-      </c>
-      <c r="D14" s="15">
-        <v>3</v>
-      </c>
-      <c r="E14" s="15">
-        <v>22</v>
-      </c>
-      <c r="F14" s="15">
-        <v>6</v>
-      </c>
-      <c r="G14" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:67" ht="38.1" customHeight="1">
-      <c r="B15" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="15">
-        <v>28</v>
-      </c>
-      <c r="D15" s="15">
-        <v>15</v>
-      </c>
-      <c r="E15" s="15">
-        <v>28</v>
-      </c>
-      <c r="F15" s="15">
-        <v>15</v>
-      </c>
-      <c r="G15" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:67" ht="38.1" customHeight="1">
-      <c r="B16" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="15">
-        <v>28</v>
-      </c>
-      <c r="D16" s="15">
-        <v>5</v>
-      </c>
-      <c r="E16" s="15">
-        <v>28</v>
-      </c>
-      <c r="F16" s="15">
-        <v>5</v>
-      </c>
-      <c r="G16" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1">
-      <c r="B17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="15">
-        <v>33</v>
-      </c>
-      <c r="D17" s="15">
-        <v>5</v>
-      </c>
-      <c r="E17" s="15">
-        <v>33</v>
-      </c>
-      <c r="F17" s="15">
-        <v>6</v>
-      </c>
-      <c r="G17" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
-      <c r="B18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="15">
-        <v>38</v>
-      </c>
-      <c r="D18" s="15">
-        <v>5</v>
-      </c>
-      <c r="E18" s="15">
-        <v>39</v>
-      </c>
-      <c r="F18" s="15">
-        <v>4</v>
-      </c>
-      <c r="G18" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="33.950000000000003" customHeight="1">
-      <c r="B19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="15">
-        <v>43</v>
-      </c>
-      <c r="D19" s="15">
-        <v>10</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="44.1" customHeight="1">
-      <c r="B20" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="15">
-        <v>43</v>
-      </c>
-      <c r="D20" s="15">
-        <v>2</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="45.95" customHeight="1">
-      <c r="B21" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="15">
-        <v>45</v>
-      </c>
-      <c r="D21" s="15">
-        <v>4</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1">
-      <c r="B22" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="15">
-        <v>49</v>
-      </c>
-      <c r="D22" s="15">
-        <v>1</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1">
-      <c r="B23" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="15">
-        <v>50</v>
-      </c>
-      <c r="D23" s="15">
-        <v>2</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="45.95" customHeight="1">
-      <c r="B24" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="15">
-        <v>52</v>
-      </c>
-      <c r="D24" s="15">
-        <v>1</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1">
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="45.95" customHeight="1">
       <c r="B25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="14">
+        <v>43</v>
+      </c>
+      <c r="D25" s="14">
+        <v>2</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="45.95" customHeight="1">
+      <c r="B26" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="14">
+        <v>45</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="45.95" customHeight="1">
+      <c r="B27" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="14">
+        <v>46</v>
+      </c>
+      <c r="D27" s="14">
+        <v>2</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="45.95" customHeight="1">
+      <c r="B28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="14">
+        <v>46</v>
+      </c>
+      <c r="D28" s="14">
+        <v>3</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="45.95" customHeight="1">
+      <c r="B29" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="14">
+        <v>47</v>
+      </c>
+      <c r="D29" s="14">
+        <v>3</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="45.95" customHeight="1">
+      <c r="B30" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="14">
+        <v>48</v>
+      </c>
+      <c r="D30" s="14">
+        <v>3</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="30" customHeight="1">
+      <c r="B31" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="14">
+        <v>51</v>
+      </c>
+      <c r="D31" s="14">
+        <v>5</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="30" customHeight="1">
+      <c r="B32" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="14">
+        <v>51</v>
+      </c>
+      <c r="D32" s="14">
+        <v>2</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="30" customHeight="1">
+      <c r="B33" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="14">
+        <v>52</v>
+      </c>
+      <c r="D33" s="14">
+        <v>2</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="30" customHeight="1">
+      <c r="B34" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="14">
+        <v>52</v>
+      </c>
+      <c r="D34" s="14">
+        <v>3</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="30" customHeight="1">
+      <c r="B35" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="14">
         <v>53</v>
       </c>
-      <c r="D25" s="15">
-        <v>5</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1">
-      <c r="B26" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="15">
+      <c r="D35" s="14">
+        <v>2</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="42" customHeight="1">
+      <c r="B36" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="16">
         <v>53</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D36" s="16">
+        <v>2</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="30" customHeight="1">
+      <c r="B37" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="14">
+        <v>55</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="30" customHeight="1">
+      <c r="B38" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="14">
+        <v>56</v>
+      </c>
+      <c r="D38" s="14">
         <v>3</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
-      <c r="B27" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="15">
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="30" customHeight="1">
+      <c r="B39" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="14">
+        <v>56</v>
+      </c>
+      <c r="D39" s="14">
+        <v>2</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="30" customHeight="1">
+      <c r="B40" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="14">
+        <v>58</v>
+      </c>
+      <c r="D40" s="14">
+        <v>1</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="30" customHeight="1">
+      <c r="B41" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="30" customHeight="1">
+      <c r="B42" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="30" customHeight="1">
+      <c r="B43" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="30" customHeight="1">
+      <c r="B44" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="15">
-        <v>4</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1">
-      <c r="B28" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="15">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="30" customHeight="1">
+      <c r="B45" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="15">
-        <v>2</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1">
-      <c r="B29" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="15">
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="30" customHeight="1">
+      <c r="B46" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="15">
-        <v>1</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
-      <c r="B30" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="18">
-        <v>56</v>
-      </c>
-      <c r="D30" s="18">
-        <v>2</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1">
-      <c r="B31" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="15">
-        <v>54</v>
-      </c>
-      <c r="D31" s="15">
-        <v>5</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="30" customHeight="1">
-      <c r="B32" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="15">
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="30" customHeight="1">
+      <c r="B47" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="15">
-        <v>3</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
-      <c r="B33" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="15">
-        <v>57</v>
-      </c>
-      <c r="D33" s="15">
-        <v>2</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="30" customHeight="1">
-      <c r="B34" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="15">
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="30" customHeight="1">
+      <c r="B48" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="30" customHeight="1">
+      <c r="B49" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="15">
-        <v>1</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="30" customHeight="1">
-      <c r="B35" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1">
-      <c r="B36" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="30" customHeight="1">
-      <c r="B37" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="30" customHeight="1">
-      <c r="B38" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="30" customHeight="1">
-      <c r="B39" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="30" customHeight="1">
-      <c r="B40" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="30" customHeight="1">
-      <c r="B41" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="30" customHeight="1">
-      <c r="B42" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="30" customHeight="1">
-      <c r="B43" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="30" customHeight="1">
-      <c r="B44" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="30" customHeight="1">
-      <c r="B45" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" ht="30" customHeight="1">
-      <c r="B46" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="30" customHeight="1">
-      <c r="B47" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="29">
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="30" customHeight="1">
+      <c r="B50" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="30" customHeight="1">
+      <c r="B51" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="30" customHeight="1">
+      <c r="B52" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="30" customHeight="1">
+      <c r="B53" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="25">
         <v>0</v>
       </c>
     </row>
@@ -2319,7 +2420,7 @@
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BO47">
+  <conditionalFormatting sqref="H5:BO53">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
